--- a/src/main/resources/template/excel/export/MemberOrderList.xlsx
+++ b/src/main/resources/template/excel/export/MemberOrderList.xlsx
@@ -332,7 +332,7 @@
   </si>
   <si>
     <r>
-      <t>${obj.createTime</t>
+      <t>${obj.expCreateTime</t>
     </r>
     <r>
       <rPr>
@@ -490,10 +490,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,7 +802,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/template/excel/export/MemberOrderList.xlsx
+++ b/src/main/resources/template/excel/export/MemberOrderList.xlsx
@@ -42,7 +42,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="N3")
+          <t xml:space="preserve">jx:area(lastCell="M3")
 </t>
         </r>
       </text>
@@ -55,7 +55,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="N3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="M3")</t>
         </r>
       </text>
     </comment>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>消费机构</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -123,216 +123,197 @@
   </si>
   <si>
     <r>
+      <t>${obj.skuCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>货号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.skuName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.barCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.spec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.unit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.saleNum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.salePrice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>原价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.originalPrice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.saleAmount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.expCreateTime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>${obj.phone</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${obj.skuCode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>货号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${obj.skuName</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>条码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${obj.barCode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${obj.spec</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${obj.unit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${obj.saleNum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售价</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${obj.salePrice</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>原价</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${obj.originalPrice</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${obj.saleAmount</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${obj.loginName</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${obj.expCreateTime</t>
     </r>
     <r>
       <rPr>
@@ -483,16 +464,16 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -799,133 +780,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="11" customWidth="1"/>
-    <col min="6" max="10" width="12.875" customWidth="1"/>
-    <col min="11" max="14" width="13.875" style="7" customWidth="1"/>
-    <col min="18" max="18" width="18.25" style="1" customWidth="1"/>
+    <col min="1" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="9" customWidth="1"/>
+    <col min="5" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="13" width="13.875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="18.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>15</v>
+      <c r="J3" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/MemberOrderList.xlsx
+++ b/src/main/resources/template/excel/export/MemberOrderList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="M3")
+          <t xml:space="preserve">jx:area(lastCell="M4")
 </t>
         </r>
       </text>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>消费机构</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -324,6 +324,17 @@
       </rPr>
       <t>}</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>$[SUM(J3)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(M3)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -331,9 +342,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="0.0000_);\(0.0000\)"/>
+    <numFmt numFmtId="178" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -441,7 +453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -474,6 +486,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -482,6 +497,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -501,7 +584,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -780,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -893,6 +976,27 @@
       </c>
       <c r="M3" s="6" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/excel/export/MemberOrderList.xlsx
+++ b/src/main/resources/template/excel/export/MemberOrderList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -40,6 +40,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">jx:area(lastCell="M3")
@@ -53,6 +54,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="M3")</t>
@@ -88,6 +90,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -111,6 +114,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -130,6 +134,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -153,6 +158,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -172,6 +178,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -191,6 +198,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -206,6 +214,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -229,6 +238,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -248,6 +258,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -267,6 +278,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -286,6 +298,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -305,6 +318,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -320,6 +334,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -348,6 +363,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -355,22 +371,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -783,7 +803,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/template/excel/export/MemberOrderList.xlsx
+++ b/src/main/resources/template/excel/export/MemberOrderList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -40,9 +40,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="M4")
+          <t xml:space="preserve">jx:area(lastCell="M3")
 </t>
         </r>
       </text>
@@ -53,6 +54,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="M3")</t>
@@ -64,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>消费机构</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -88,6 +90,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -111,6 +114,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -130,6 +134,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -153,6 +158,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -172,6 +178,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -191,6 +198,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -206,6 +214,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -229,6 +238,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -248,6 +258,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -267,6 +278,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -286,6 +298,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -305,6 +318,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -320,21 +334,11 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>$[SUM(J3)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(M3)]</t>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -342,10 +346,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="0.0000_);\(0.0000\)"/>
-    <numFmt numFmtId="178" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -360,6 +363,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -367,22 +371,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -453,7 +461,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -486,9 +494,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -497,74 +502,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -584,7 +521,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -863,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -976,27 +913,6 @@
       </c>
       <c r="M3" s="6" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/excel/export/MemberOrderList.xlsx
+++ b/src/main/resources/template/excel/export/MemberOrderList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -43,7 +43,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="M3")
+          <t xml:space="preserve">jx:area(lastCell="N3")
 </t>
         </r>
       </text>
@@ -57,7 +57,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="M3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="N3")</t>
         </r>
       </text>
     </comment>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>消费机构</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -338,6 +338,26 @@
         <charset val="134"/>
       </rPr>
       <t>}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小票号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ticketNo}</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -461,7 +481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -495,6 +515,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,23 +826,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
     <col min="4" max="4" width="12.875" style="9" customWidth="1"/>
     <col min="5" max="9" width="12.875" customWidth="1"/>
     <col min="10" max="13" width="13.875" style="7" customWidth="1"/>
-    <col min="17" max="17" width="18.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.625" style="7" customWidth="1"/>
+    <col min="18" max="18" width="18.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -832,8 +860,9 @@
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -873,8 +902,11 @@
       <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="N2" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
@@ -913,11 +945,14 @@
       </c>
       <c r="M3" s="6" t="s">
         <v>23</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/MemberOrderList.xlsx
+++ b/src/main/resources/template/excel/export/MemberOrderList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -366,9 +366,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="0.0000_);\(0.0000\)"/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -498,9 +499,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -510,17 +508,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,7 +830,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -837,30 +838,30 @@
     <col min="1" max="1" width="17.375" customWidth="1"/>
     <col min="2" max="2" width="24.625" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="8" customWidth="1"/>
     <col min="5" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="13" width="13.875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="24.625" style="7" customWidth="1"/>
+    <col min="10" max="13" width="13.875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="24.625" style="6" customWidth="1"/>
     <col min="18" max="18" width="18.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -902,7 +903,7 @@
       <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -916,7 +917,7 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -934,19 +935,19 @@
       <c r="I3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="10" t="s">
         <v>28</v>
       </c>
     </row>
